--- a/data/trans_dic/P5_3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de azotea en su vivienda</t>
+          <t>Población que disfruta de azotea en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,12 +602,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,99%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>35,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>34,12%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,52; 42,57</t>
+          <t>26,75; 42,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,21; 44,62</t>
+          <t>28,02; 44,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,07; 38,72</t>
+          <t>24,84; 39,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,74; 40,03</t>
+          <t>24,7; 39,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,46; 38,3</t>
+          <t>28,02; 38,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,97; 39,18</t>
+          <t>29,06; 39,85</t>
         </is>
       </c>
     </row>
@@ -681,12 +682,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>19,12%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,7; 20,71</t>
+          <t>10,9; 21,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,07; 25,27</t>
+          <t>12,3; 24,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,39; 30,22</t>
+          <t>18,95; 30,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,87; 26,38</t>
+          <t>14,84; 25,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,53; 23,47</t>
+          <t>15,4; 23,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 23,52</t>
+          <t>15,13; 23,76</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>21,91%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,45; 26,21</t>
+          <t>15,27; 26,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 29,19</t>
+          <t>13,09; 23,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,37; 29,41</t>
+          <t>20,02; 29,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,81; 31,28</t>
+          <t>21,22; 31,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,05; 26,31</t>
+          <t>19,07; 26,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,66; 28,58</t>
+          <t>18,41; 25,7</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>25,27%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,84; 31,07</t>
+          <t>20,38; 30,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,73; 29,19</t>
+          <t>19,02; 29,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,7; 32,62</t>
+          <t>23,0; 32,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,12; 32,17</t>
+          <t>22,2; 32,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,88; 30,09</t>
+          <t>22,88; 30,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,69; 29,17</t>
+          <t>22,04; 28,98</t>
         </is>
       </c>
     </row>
@@ -926,7 +927,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +937,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>27,33%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,18; 33,46</t>
+          <t>21,97; 33,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,46; 36,88</t>
+          <t>23,87; 37,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,26; 30,88</t>
+          <t>19,69; 30,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,32; 31,24</t>
+          <t>19,53; 30,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,82; 30,53</t>
+          <t>22,59; 30,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,41; 32,5</t>
+          <t>23,21; 31,7</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1007,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>30,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>25,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>27,65%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,63; 36,07</t>
+          <t>23,52; 35,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,87; 36,42</t>
+          <t>23,75; 38,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,87; 32,06</t>
+          <t>21,71; 32,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,31; 32,44</t>
+          <t>19,92; 31,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,31; 32,4</t>
+          <t>24,0; 32,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,64; 31,94</t>
+          <t>23,48; 32,84</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1097,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>25,59%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,48; 27,42</t>
+          <t>22,44; 27,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,92; 28,42</t>
+          <t>22,92; 28,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,53; 28,81</t>
+          <t>24,32; 28,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,55; 28,43</t>
+          <t>23,58; 28,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,11; 27,39</t>
+          <t>24,13; 27,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,95; 27,75</t>
+          <t>23,86; 27,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de azotea en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>174408</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>180211</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>146051</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>151003</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>320459</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>331214</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>137236; 218409</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>140670; 221871</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>114997; 184330</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>115799; 187022</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>273435; 376143</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>282086; 386876</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>85490</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>103847</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>125938</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>104973</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>211427</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>208820</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>61417; 120723</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>70522; 142999</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>98306; 157471</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>77047; 133888</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>166616; 254037</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>165322; 259510</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>137538</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>120237</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>169420</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>186266</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>306957</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>306503</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>103207; 181716</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>89830; 163178</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>138950; 203565</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>151175; 221573</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>261207; 364573</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>257548; 359445</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>160657</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>152966</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>194087</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>183814</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>354744</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>336780</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>130086; 192351</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>123098; 192986</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>161726; 225852</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>152208; 219986</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>306967; 402777</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>293832; 386270</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>141254</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>148853</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>127927</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>125614</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>269181</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>274466</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>112445; 171941</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>118227; 183954</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>98914; 154028</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>99403; 157706</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>229178; 308834</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>233136; 318353</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>162485</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>166514</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>196964</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>182661</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>359448</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>349175</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>128625; 194978</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>129463; 207741</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>158752; 235368</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>143002; 228608</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>306719; 411286</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>296507; 414773</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>350.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>435.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>785.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>660.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>861831</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>872627</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>960386</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>934330</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1822217</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1806957</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>774218; 950960</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>790458; 970930</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>878444; 1041532</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>851720; 1012069</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1704229; 1945180</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1684963; 1929632</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>